--- a/Docs/Differential Lock Map.xlsx
+++ b/Docs/Differential Lock Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1540" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5D64BB-138C-4135-BAEB-FEA610AA5B9A}"/>
+  <xr:revisionPtr revIDLastSave="2033" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8D06F9-7A89-4DAE-A5EE-6EF9F65F0CBC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Front" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>85</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
   </si>
   <si>
     <t>Result</t>
@@ -63,31 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>85 8+8</t>
-  </si>
-  <si>
-    <t>85 8+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40 4+4</t>
-  </si>
-  <si>
-    <t>40 6+6</t>
-  </si>
-  <si>
-    <t>40 8+8</t>
-  </si>
-  <si>
-    <t>55 4+4</t>
-  </si>
-  <si>
-    <t>55 6+6</t>
-  </si>
-  <si>
-    <t>55 8+8</t>
-  </si>
-  <si>
     <t>Receiver F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,57 +76,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>60 4+4</t>
-  </si>
-  <si>
-    <t>60 6+6</t>
-  </si>
-  <si>
-    <t>60 8+8</t>
-  </si>
-  <si>
-    <t>70 4+4</t>
-  </si>
-  <si>
-    <t>70 6+6</t>
-  </si>
-  <si>
-    <t>70 8+8</t>
-  </si>
-  <si>
-    <t>45 4+4</t>
-  </si>
-  <si>
-    <t>45 4+4</t>
+    <t>48/85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>45 6+6</t>
-  </si>
-  <si>
-    <t>45 6+6</t>
+    <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>45 8+8</t>
-  </si>
-  <si>
-    <t>45 8+8</t>
+    <t>R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>45/85</t>
+    <t>48 4+4</t>
+  </si>
+  <si>
+    <t>48 4+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60/85</t>
+    <t>48 6+6</t>
+  </si>
+  <si>
+    <t>48 6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50/85</t>
+    <t>72 4+4</t>
+  </si>
+  <si>
+    <t>72 4+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72 6+6</t>
+  </si>
+  <si>
+    <t>72 6+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52/85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52 4+4</t>
+  </si>
+  <si>
+    <t>52 4+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52 6+6</t>
+  </si>
+  <si>
+    <t>52 6+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58/85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58 4+4</t>
+  </si>
+  <si>
+    <t>58 4+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58 6+6</t>
+  </si>
+  <si>
+    <t>58 6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,20 +156,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>55/85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55 4+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55 6+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55 8+8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>40 4+4</t>
   </si>
   <si>
     <t>40 4+4</t>
@@ -183,31 +164,27 @@
   </si>
   <si>
     <t>40 6+6</t>
+  </si>
+  <si>
+    <t>40 6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40 8+8</t>
+    <t>43/85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50 4+4</t>
+    <t>43 4+4</t>
   </si>
   <si>
-    <t>50 4+4</t>
+    <t>43 4+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50 6+6</t>
+    <t>43 6+6</t>
   </si>
   <si>
-    <t>50 6+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50 8+8</t>
-  </si>
-  <si>
-    <t>50 8+8</t>
+    <t>43 6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,14 +211,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -322,24 +291,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
@@ -351,14 +316,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -367,25 +332,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -394,7 +350,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -506,71 +465,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Front!$A$37:$A$45</c:f>
+              <c:f>Front!$A$29:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>45 8+8</c:v>
+                  <c:v>48 6+6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45 6+6</c:v>
+                  <c:v>52 6+6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55 8+8</c:v>
+                  <c:v>48 4+4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60 8+8</c:v>
+                  <c:v>58 6+6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55 6+6</c:v>
+                  <c:v>52 4+4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45 4+4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60 6+6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>55 4+4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>60 4+4</c:v>
+                  <c:v>58 4+4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Front!$B$37:$B$45</c:f>
+              <c:f>Front!$B$29:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4622003559957894</c:v>
+                  <c:v>0.33218817983881094</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34665026699684204</c:v>
+                  <c:v>0.28824154205780267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32371360994672466</c:v>
+                  <c:v>0.25457105516391482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26696609004326377</c:v>
+                  <c:v>0.23053451832248154</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24278520746004351</c:v>
+                  <c:v>0.22089272875192084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2311001779978947</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20022456753244783</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16185680497336233</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13348304502163189</c:v>
+                  <c:v>0.17666918675293058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -838,71 +779,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Front!$A$47:$A$55</c:f>
+              <c:f>Front!$A$35:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40 8+8</c:v>
+                  <c:v>40 6+6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40 6+6</c:v>
+                  <c:v>43 6+6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50 8+8</c:v>
+                  <c:v>40 4+4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55 8+8</c:v>
+                  <c:v>43 4+4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50 6+6</c:v>
+                  <c:v>52 6+6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40 4+4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>55 6+6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50 4+4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55 4+4</c:v>
+                  <c:v>52 4+4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Front!$B$47:$B$55</c:f>
+              <c:f>Front!$B$35:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5507862382156381</c:v>
+                  <c:v>0.43967645330709021</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41308967866172858</c:v>
+                  <c:v>0.39563150804924435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3878717325280937</c:v>
+                  <c:v>0.33694425461925048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32371360994672466</c:v>
+                  <c:v>0.30319059067381021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29090379939607025</c:v>
+                  <c:v>0.28824154205780267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27539311910781905</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24278520746004351</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19393586626404685</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16185680497336233</c:v>
+                  <c:v>0.22089272875192084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,25 +1092,19 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Front!$F$37:$F$42</c:f>
+              <c:f>Front!$F$29:$F$32</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>70 8+8</c:v>
+                  <c:v>72 6+6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70 6+6</c:v>
+                  <c:v>72 4+4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70 4+4</c:v>
+                  <c:v>85 6+6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85 8+8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85 6+6</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>85 4+4</c:v>
                 </c:pt>
               </c:strCache>
@@ -1195,27 +1112,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Front!$G$37:$G$42</c:f>
+              <c:f>Front!$G$29:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.33059357466368999</c:v>
+                  <c:v>0.11618497512127297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24794518114776781</c:v>
+                  <c:v>8.9037881255039183E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1652967874318452</c:v>
+                  <c:v>3.1284247501778398E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                  <c:v>2.3974555327047547E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,7 +2943,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>530866</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>143485</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3061,14 +2972,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>70101</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>28060</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>64283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>527301</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>485260</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>110266</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3098,13 +3009,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>86992</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>87743</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>538374</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>133726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3454,927 +3365,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53A2CF9-C721-44C5-8A93-F91D726F5388}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.625" customWidth="1"/>
+    <col min="1" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+    <row r="1" spans="1:9" ht="17.399999999999999">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1"/>
-      <c r="F1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="F1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>1</v>
+      <c r="D2" s="6">
+        <v>72</v>
       </c>
       <c r="E2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>40</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18">
+    <row r="3" spans="1:9" ht="17.399999999999999">
       <c r="A3" s="1">
         <v>4</v>
       </c>
-      <c r="B3" s="9">
-        <f>(1/TAN(45*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A3/8)*2</f>
-        <v>0.2311001779978947</v>
-      </c>
-      <c r="C3" s="10">
-        <f>(1/TAN(85*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A3/8)*2</f>
-        <v>0.04</v>
-      </c>
-      <c r="D3" s="11">
-        <f>(1/TAN(70*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A3/8)*2</f>
-        <v>0.1652967874318452</v>
+      <c r="B3" s="7">
+        <f>(1/TAN(48*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A3-8)*0.0947)*2</f>
+        <v>0.25457105516391482</v>
+      </c>
+      <c r="C3" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A3-8)*0.0947)*2</f>
+        <v>2.4735652321556993E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <f>(1/TAN(72*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A3-8)*0.0947)*2</f>
+        <v>9.186448065996107E-2</v>
       </c>
       <c r="E3"/>
       <c r="F3" s="1">
         <v>4</v>
       </c>
-      <c r="G3" s="9">
-        <f>(1/TAN(40*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F3/8)*2</f>
-        <v>0.27539311910781905</v>
-      </c>
-      <c r="H3" s="11">
-        <f>(1/TAN(85*3.14/180))/(1/TAN(85*3.14/180))*0.04*(F3/8)*2</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18">
+      <c r="G3" s="7">
+        <f>(1/TAN(40*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F3-8)*0.0947)*2</f>
+        <v>0.33694425461925048</v>
+      </c>
+      <c r="H3" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F3-8)*0.0947)*2</f>
+        <v>2.4735652321556993E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.399999999999999">
       <c r="A4" s="1">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
-        <f>(1/TAN(45*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A4/8)*2</f>
-        <v>0.34665026699684204</v>
-      </c>
-      <c r="C4" s="10">
-        <f t="shared" ref="C4:C5" si="0">(1/TAN(85*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A4/8)*2</f>
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="11">
-        <f>(1/TAN(70*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A4/8)*2</f>
-        <v>0.24794518114776781</v>
+      <c r="B4" s="7">
+        <f>(1/TAN(48*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A4-8)*0.0947)*2</f>
+        <v>0.33218817983881094</v>
+      </c>
+      <c r="C4" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A4-8)*0.0947)*2</f>
+        <v>3.2277398216120572E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <f>(1/TAN(72*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A4-8)*0.0947)*2</f>
+        <v>0.1198733870298848</v>
       </c>
       <c r="E4"/>
       <c r="F4" s="1">
         <v>6</v>
       </c>
-      <c r="G4" s="9">
-        <f>(1/TAN(40*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F4/8)*2</f>
-        <v>0.41308967866172858</v>
-      </c>
-      <c r="H4" s="11">
-        <f t="shared" ref="H4:H5" si="1">(1/TAN(85*3.14/180))/(1/TAN(85*3.14/180))*0.04*(F4/8)*2</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18">
-      <c r="A5" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4">
-        <f>(1/TAN(45*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A5/8)*2</f>
-        <v>0.4622003559957894</v>
-      </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="D5" s="13">
-        <f>(1/TAN(70*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A5/8)*2</f>
-        <v>0.3305935748636904</v>
-      </c>
+      <c r="G4" s="7">
+        <f>(1/TAN(40*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F4-8)*0.0947)*2</f>
+        <v>0.43967645330709021</v>
+      </c>
+      <c r="H4" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F4-8)*0.0947)*2</f>
+        <v>3.2277398216120572E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17.399999999999999">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5"/>
-      <c r="F5" s="1">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4">
-        <f>(1/TAN(40*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F5/8)*2</f>
-        <v>0.5507862382156381</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.399999999999999">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>72</v>
+      </c>
       <c r="E6"/>
-      <c r="F6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>55</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>1</v>
+    </row>
+    <row r="7" spans="1:9" ht="17.399999999999999">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <f>(1/TAN(52*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A7-8)*0.0947)*2</f>
+        <v>0.22089272875192084</v>
+      </c>
+      <c r="C7" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A7-8)*0.0947)*2</f>
+        <v>2.4735652321556993E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <f>(1/TAN(72*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A7-8)*0.0947)*2</f>
+        <v>9.186448065996107E-2</v>
       </c>
       <c r="E7"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1">
-        <v>50</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18">
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
+        <f>(1/TAN(43*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F7-8)*0.0947)*2</f>
+        <v>0.30319059067381021</v>
+      </c>
+      <c r="H7" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F7-8)*0.0947)*2</f>
+        <v>2.4735652321556993E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.399999999999999">
       <c r="A8" s="1">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9">
-        <f>(1/TAN(55*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A8/8)*2</f>
-        <v>0.16185680497336233</v>
-      </c>
-      <c r="C8" s="10">
-        <f t="shared" ref="C8:C10" si="2">(1/TAN(85*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A8/8)*2</f>
-        <v>0.04</v>
-      </c>
-      <c r="D8" s="11">
-        <f>(1/TAN(70*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A8/8)*2</f>
-        <v>0.1652967874318452</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <f>(1/TAN(52*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A8-8)*0.0947)*2</f>
+        <v>0.28824154205780267</v>
+      </c>
+      <c r="C8" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A8-8)*0.0947)*2</f>
+        <v>3.2277398216120572E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <f>(1/TAN(72*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A8-8)*0.0947)*2</f>
+        <v>0.1198733870298848</v>
       </c>
       <c r="E8"/>
       <c r="F8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <f>(1/TAN(43*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F8-8)*0.0947)*2</f>
+        <v>0.39563150804924435</v>
+      </c>
+      <c r="H8" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F8-8)*0.0947)*2</f>
+        <v>3.2277398216120572E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17.399999999999999">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9"/>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.399999999999999">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>52</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.399999999999999">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="G8" s="9">
-        <f>(1/TAN(50*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F8/8)*2</f>
-        <v>0.19393586626404685</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" ref="H8:H10" si="3">(1/TAN(85*3.14/180))/(1/TAN(85*3.14/180))*0.04*(F8/8)*2</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18">
-      <c r="A9" s="1">
+      <c r="B11" s="7">
+        <f>(1/TAN(58*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A11-8)*0.0947)*2</f>
+        <v>0.17666918675293058</v>
+      </c>
+      <c r="C11" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A11-8)*0.0947)*2</f>
+        <v>2.4735652321556993E-2</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="G11" s="7">
+        <f>(1/TAN(52*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F11-8)*0.0947)*2</f>
+        <v>0.22089272875192084</v>
+      </c>
+      <c r="H11" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F11-8)*0.0947)*2</f>
+        <v>2.4735652321556993E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.399999999999999">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
-        <f>(1/TAN(55*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A9/8)*2</f>
-        <v>0.24278520746004351</v>
-      </c>
-      <c r="C9" s="10">
-        <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="11">
-        <f>(1/TAN(70*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A9/8)*2</f>
-        <v>0.24794518114776781</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9" s="1">
+      <c r="B12" s="7">
+        <f>(1/TAN(58*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A12-8)*0.0947)*2</f>
+        <v>0.23053451832248154</v>
+      </c>
+      <c r="C12" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A12-8)*0.0947)*2</f>
+        <v>3.2277398216120572E-2</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="G9" s="9">
-        <f>(1/TAN(50*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F9/8)*2</f>
-        <v>0.29090379939607025</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4">
-        <f>(1/TAN(55*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A10/8)*2</f>
-        <v>0.32371360994672466</v>
-      </c>
-      <c r="C10" s="12">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-      <c r="D10" s="14">
-        <f>(1/TAN(70*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A10/8)*2</f>
-        <v>0.3305935748636904</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10" s="1">
-        <v>8</v>
-      </c>
-      <c r="G10" s="4">
-        <f>(1/TAN(50*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F10/8)*2</f>
-        <v>0.3878717325280937</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="3"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18">
-      <c r="A11" s="6" t="s">
+      <c r="G12" s="7">
+        <f>(1/TAN(52*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F12-8)*0.0947)*2</f>
+        <v>0.28824154205780267</v>
+      </c>
+      <c r="H12" s="7">
+        <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F12-8)*0.0947)*2</f>
+        <v>3.2277398216120572E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:9" ht="17.399999999999999">
+      <c r="A14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14"/>
+      <c r="F14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.399999999999999">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:9" ht="17.399999999999999">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B3</f>
+        <v>0.25457105516391482</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="E16"/>
+      <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11"/>
-      <c r="F11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="18">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>55</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="9">
-        <f>(1/TAN(60*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A13/8)*2</f>
-        <v>0.13348304502163189</v>
-      </c>
-      <c r="C13" s="11">
-        <f t="shared" ref="C13:C15" si="4">(1/TAN(85*3.14/180))/(1/TAN(85*3.14/180))*0.04*(A13/8)*2</f>
-        <v>0.04</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9">
-        <f>(1/TAN(55*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F13/8)*2</f>
-        <v>0.16185680497336233</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" ref="H13:H15" si="5">(1/TAN(85*3.14/180))/(1/TAN(85*3.14/180))*0.04*(F13/8)*2</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9">
-        <f>(1/TAN(60*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A14/8)*2</f>
-        <v>0.20022456753244783</v>
-      </c>
-      <c r="C14" s="11">
-        <f t="shared" si="4"/>
-        <v>0.06</v>
-      </c>
-      <c r="F14" s="1">
-        <v>6</v>
-      </c>
-      <c r="G14" s="9">
-        <f>(1/TAN(55*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F14/8)*2</f>
-        <v>0.24278520746004351</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="5"/>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18">
-      <c r="A15" s="1">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4">
-        <f>(1/TAN(60*3.14/180))/(1/TAN(35*3.14/180))*0.33*(A15/8)*2</f>
-        <v>0.26696609004326377</v>
-      </c>
-      <c r="C15" s="13">
-        <f t="shared" si="4"/>
-        <v>0.08</v>
-      </c>
-      <c r="F15" s="1">
-        <v>8</v>
-      </c>
-      <c r="G15" s="4">
-        <f>(1/TAN(55*3.14/180))/(1/TAN(35*3.14/180))*0.33*(F15/8)*2</f>
-        <v>0.32371360994672466</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="5"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="G16" s="4">
+        <f>G3</f>
+        <v>0.33694425461925048</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="17.399999999999999">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B4</f>
+        <v>0.33218817983881094</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="E17"/>
-      <c r="F17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
-      <c r="E18"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="18">
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4">
+        <f>G4</f>
+        <v>0.43967645330709021</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.399999999999999">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B7</f>
+        <v>0.22089272875192084</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="4">
+        <f>G7</f>
+        <v>0.30319059067381021</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.399999999999999">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="4">
-        <f>B3</f>
-        <v>0.2311001779978947</v>
+        <f>B8</f>
+        <v>0.28824154205780267</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="E19"/>
       <c r="F19" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="4">
-        <f>G3</f>
-        <v>0.27539311910781905</v>
+        <f>G8</f>
+        <v>0.39563150804924435</v>
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="18">
+    <row r="20" spans="1:9" ht="17.399999999999999">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="4">
-        <f t="shared" ref="B20:B21" si="6">B4</f>
-        <v>0.34665026699684204</v>
+        <f>B11</f>
+        <v>0.17666918675293058</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="E20"/>
       <c r="F20" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" ref="G20:G21" si="7">G4</f>
-        <v>0.41308967866172858</v>
+        <f>G11</f>
+        <v>0.22089272875192084</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="18">
+    <row r="21" spans="1:9" ht="17.399999999999999">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4">
-        <f t="shared" si="6"/>
-        <v>0.4622003559957894</v>
+        <f>B12</f>
+        <v>0.23053451832248154</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="E21"/>
       <c r="F21" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="7"/>
-        <v>0.5507862382156381</v>
+        <f>G12</f>
+        <v>0.28824154205780267</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="18">
+    <row r="22" spans="1:9" ht="17.399999999999999">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4">
-        <f>B8</f>
-        <v>0.16185680497336233</v>
+        <f>D3</f>
+        <v>9.186448065996107E-2</v>
       </c>
       <c r="C22" s="4"/>
       <c r="F22" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G22" s="4">
-        <f>G8</f>
-        <v>0.19393586626404685</v>
+        <f>H3</f>
+        <v>2.4735652321556993E-2</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="18">
+    <row r="23" spans="1:9" ht="17.399999999999999">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4">
-        <f>B9</f>
-        <v>0.24278520746004351</v>
+        <f>D4</f>
+        <v>0.1198733870298848</v>
       </c>
       <c r="C23" s="4"/>
       <c r="F23" s="1" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="G23" s="4">
-        <f>G9</f>
-        <v>0.29090379939607025</v>
+        <f>H4</f>
+        <v>3.2277398216120572E-2</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:9" ht="17.399999999999999">
       <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4">
+        <f>C3</f>
+        <v>2.4735652321556993E-2</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="17.399999999999999">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
+        <f>C4</f>
+        <v>3.2277398216120572E-2</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="18" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="F27" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" ht="17.399999999999999">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="5"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="17.399999999999999">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.33218817983881094</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.11618497512127297</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="17.399999999999999">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.28824154205780267</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="4">
+        <v>8.9037881255039183E-2</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="17.399999999999999">
+      <c r="A31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.25457105516391482</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="F31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3.1284247501778398E-2</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.399999999999999">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0.23053451832248154</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.3974555327047547E-2</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.399999999999999">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.22089272875192084</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.399999999999999">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0.17666918675293058</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.399999999999999">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.43967645330709021</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.399999999999999">
+      <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4">
-        <f t="shared" ref="B24" si="8">B10</f>
-        <v>0.32371360994672466</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="F24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="4">
-        <f t="shared" ref="G24" si="9">G10</f>
-        <v>0.3878717325280937</v>
-      </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="4">
-        <f>B13</f>
-        <v>0.13348304502163189</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="F25" s="1" t="s">
+      <c r="B36" s="4">
+        <v>0.39563150804924435</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.399999999999999">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0.33694425461925048</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.399999999999999">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="4">
-        <f>G13</f>
-        <v>0.16185680497336233</v>
-      </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="18">
-      <c r="A26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4">
-        <f>B14</f>
-        <v>0.20022456753244783</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="F26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="4">
-        <f>G14</f>
-        <v>0.24278520746004351</v>
-      </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="4">
-        <f t="shared" ref="B27" si="10">B15</f>
-        <v>0.26696609004326377</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="F27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="4">
-        <f>G15</f>
-        <v>0.32371360994672466</v>
-      </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="4">
-        <f>D3</f>
-        <v>0.1652967874318452</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="F28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4">
-        <f>H3</f>
-        <v>0.04</v>
-      </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="1" t="s">
+      <c r="B38" s="4">
+        <v>0.30319059067381021</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" ht="17.399999999999999">
+      <c r="A39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="4">
-        <f>D4</f>
-        <v>0.24794518114776781</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="F29" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="4">
-        <f>H4</f>
-        <v>0.06</v>
-      </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="4">
-        <f t="shared" ref="B30" si="11">D5</f>
-        <v>0.3305935748636904</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="F30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="4">
-        <f>H5</f>
-        <v>0.08</v>
-      </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="4">
-        <f>C3</f>
-        <v>0.04</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="18">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="4">
-        <f>C4</f>
-        <v>0.06</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="4">
-        <f t="shared" ref="B33" si="12">C5</f>
-        <v>0.08</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="F35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" ht="18">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="5"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0.4622003559957894</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="F37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="4">
-        <v>0.33059357466368999</v>
-      </c>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0.34665026699684204</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="F38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="4">
-        <v>0.24794518114776781</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B39" s="4">
-        <v>0.32371360994672466</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="F39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="4">
-        <v>0.1652967874318452</v>
-      </c>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:9" ht="18">
+        <v>0.28824154205780267</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="F39">
+        <v>30355</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17.399999999999999">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="4">
-        <v>0.26696609004326377</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0.24278520746004351</v>
-      </c>
+        <v>0.22089272875192084</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="F40">
+        <v>30357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.399999999999999">
+      <c r="A41" s="1"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="4"/>
-      <c r="F41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" ht="18">
-      <c r="A42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0.2311001779978947</v>
-      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.399999999999999">
+      <c r="A42" s="1"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="F42" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.04</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="4">
-        <v>0.20022456753244783</v>
-      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.399999999999999">
+      <c r="A43" s="1"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="4">
-        <v>0.16185680497336233</v>
-      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.399999999999999">
+      <c r="A44" s="1"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" ht="18">
-      <c r="A45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="4">
-        <v>0.13348304502163189</v>
-      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.399999999999999">
+      <c r="A45" s="1"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" ht="18">
+    </row>
+    <row r="46" spans="1:8" ht="17.399999999999999">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:9" ht="18">
-      <c r="A47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" s="4">
-        <v>0.5507862382156381</v>
-      </c>
+    <row r="47" spans="1:8" ht="17.399999999999999">
+      <c r="A47" s="1"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.41308967866172858</v>
-      </c>
+    <row r="48" spans="1:8" ht="17.399999999999999">
+      <c r="A48" s="1"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" ht="18">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4">
-        <v>0.3878717325280937</v>
-      </c>
+    <row r="49" spans="1:3" ht="17.399999999999999">
+      <c r="A49" s="1"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" ht="18">
-      <c r="A50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" s="4">
-        <v>0.32371360994672466</v>
-      </c>
+    <row r="50" spans="1:3" ht="17.399999999999999">
+      <c r="A50" s="1"/>
+      <c r="B50" s="4"/>
       <c r="C50" s="4"/>
     </row>
-    <row r="51" spans="1:3" ht="18">
-      <c r="A51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="4">
-        <v>0.29090379939607025</v>
-      </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" ht="18">
-      <c r="A52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="4">
-        <v>0.27539311910781905</v>
-      </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" ht="18">
-      <c r="A53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="4">
-        <v>0.24278520746004351</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" ht="18">
-      <c r="A54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="4">
-        <v>0.19393586626404685</v>
-      </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3" ht="18">
-      <c r="A55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="4">
-        <v>0.16185680497336233</v>
-      </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" ht="18">
-      <c r="A56" s="1"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="1:3" ht="18">
-      <c r="A57" s="1"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" ht="18">
-      <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:B45">
-    <sortCondition descending="1" ref="B37:B45"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:B40">
+    <sortCondition descending="1" ref="B35:B40"/>
   </sortState>
-  <mergeCells count="10">
-    <mergeCell ref="F35:I35"/>
+  <mergeCells count="12">
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F14:I14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Differential Lock Map.xlsx
+++ b/Docs/Differential Lock Map.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2033" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F8D06F9-7A89-4DAE-A5EE-6EF9F65F0CBC}"/>
+  <xr:revisionPtr revIDLastSave="2248" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF9D278-AE94-4857-BBE5-0761BFB4A2F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Front" sheetId="1" r:id="rId1"/>
+    <sheet name="Graph" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>85</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,29 +76,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>48/85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48 4+4</t>
-  </si>
-  <si>
-    <t>48 4+4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48 6+6</t>
-  </si>
-  <si>
-    <t>48 6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -116,75 +98,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>52/85</t>
+    <t>46/85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>52 4+4</t>
-  </si>
-  <si>
-    <t>52 4+4</t>
+    <t>50/85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>52 6+6</t>
+    <t>46 4+4</t>
   </si>
   <si>
-    <t>52 6+6</t>
+    <t>46 4+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>58/85</t>
+    <t>46 6+6</t>
+  </si>
+  <si>
+    <t>46 6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>58 4+4</t>
+    <t>50 4+4</t>
   </si>
   <si>
-    <t>58 4+4</t>
+    <t>50 4+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>58 6+6</t>
+    <t>50 6+6</t>
   </si>
   <si>
-    <t>58 6+6</t>
+    <t>50 6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40/85</t>
+    <t>60/85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40 4+4</t>
+    <t>60 4+4</t>
   </si>
   <si>
-    <t>40 4+4</t>
+    <t>60 4+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>40 6+6</t>
+    <t>60 6+6</t>
   </si>
   <si>
-    <t>40 6+6</t>
+    <t>60 6+6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>43/85</t>
+    <t>44/85</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>43 4+4</t>
+    <t>44 4+4</t>
   </si>
   <si>
-    <t>43 4+4</t>
+    <t>44 4+4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>43 6+6</t>
+    <t>44 6+6</t>
   </si>
   <si>
-    <t>43 6+6</t>
+    <t>44 6+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38/85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38 4+4</t>
+  </si>
+  <si>
+    <t>38 4+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38 6+6</t>
+  </si>
+  <si>
+    <t>38 6+6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,6 +345,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -348,12 +367,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,53 +478,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Front!$A$29:$A$34</c:f>
+              <c:f>Graph!$A$29:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>48 6+6</c:v>
+                  <c:v>46 6+6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52 6+6</c:v>
+                  <c:v>50 6+6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48 4+4</c:v>
+                  <c:v>46 4+4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58 6+6</c:v>
+                  <c:v>50 4+4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52 4+4</c:v>
+                  <c:v>60 6+6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58 4+4</c:v>
+                  <c:v>60 4+4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Front!$B$29:$B$34</c:f>
+              <c:f>Graph!$C$29:$C$34</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.33218817983881094</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28824154205780267</c:v>
+                  <c:v>0.86891310437455982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25457105516391482</c:v>
+                  <c:v>0.76634591660498397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23053451832248154</c:v>
+                  <c:v>0.6658880094220041</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22089272875192084</c:v>
+                  <c:v>0.59786370542100298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17666918675293058</c:v>
+                  <c:v>0.45817040933571068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,6 +603,8 @@
         <c:axId val="1546776560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -607,14 +622,16 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -779,53 +796,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Front!$A$35:$A$40</c:f>
+              <c:f>Graph!$A$35:$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40 6+6</c:v>
+                  <c:v>38 6+6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43 6+6</c:v>
+                  <c:v>44 6+6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40 4+4</c:v>
+                  <c:v>38 4+4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43 4+4</c:v>
+                  <c:v>50 6+6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52 6+6</c:v>
+                  <c:v>44 4+4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52 4+4</c:v>
+                  <c:v>50 4+4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Front!$B$35:$B$40</c:f>
+              <c:f>Graph!$C$35:$C$40</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.43967645330709021</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39563150804924435</c:v>
+                  <c:v>0.80904494997656262</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33694425461925048</c:v>
+                  <c:v>0.76634591660498397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30319059067381021</c:v>
+                  <c:v>0.65557648104589661</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28824154205780267</c:v>
+                  <c:v>0.62000829376442235</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22089272875192084</c:v>
+                  <c:v>0.50239835927178744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -904,6 +921,7 @@
         <c:axId val="1458893936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -921,7 +939,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -955,6 +973,7 @@
         <c:crossAx val="1458892976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1092,7 +1111,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Front!$F$29:$F$32</c:f>
+              <c:f>Graph!$F$29:$F$32</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1112,21 +1131,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Front!$G$29:$G$32</c:f>
+              <c:f>Graph!$H$29:$H$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.11618497512127297</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9037881255039183E-2</c:v>
+                  <c:v>0.76634591660498386</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1284247501778398E-2</c:v>
+                  <c:v>0.26926241942320117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3974555327047547E-2</c:v>
+                  <c:v>0.20634815562014874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,6 +1224,7 @@
         <c:axId val="1702627552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1222,7 +1242,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2972,15 +2992,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>28060</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64283</xdr:rowOff>
+      <xdr:colOff>68330</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>184810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>485260</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>110266</xdr:rowOff>
+      <xdr:colOff>525531</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4569</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3008,15 +3028,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>86992</xdr:colOff>
+      <xdr:colOff>66158</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>538374</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133726</xdr:rowOff>
+      <xdr:colOff>517540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3367,27 +3387,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53A2CF9-C721-44C5-8A93-F91D726F5388}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="9" width="12.6640625" customWidth="1"/>
+    <col min="1" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1"/>
       <c r="F1" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -3396,7 +3416,7 @@
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -3407,19 +3427,19 @@
       <c r="E2"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.399999999999999">
+    <row r="3" spans="1:9" ht="18">
       <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <f>(1/TAN(48*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A3-8)*0.0947)*2</f>
-        <v>0.25457105516391482</v>
+        <f>(1/TAN(46*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A3-8)*0.0947)*2</f>
+        <v>0.27302899394937191</v>
       </c>
       <c r="C3" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A3-8)*0.0947)*2</f>
@@ -3434,21 +3454,21 @@
         <v>4</v>
       </c>
       <c r="G3" s="7">
-        <f>(1/TAN(40*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F3-8)*0.0947)*2</f>
-        <v>0.33694425461925048</v>
+        <f>(1/TAN(38*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F3-8)*0.0947)*2</f>
+        <v>0.36187764139788098</v>
       </c>
       <c r="H3" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F3-8)*0.0947)*2</f>
         <v>2.4735652321556993E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.399999999999999">
+    <row r="4" spans="1:9" ht="18">
       <c r="A4" s="1">
         <v>6</v>
       </c>
       <c r="B4" s="7">
-        <f>(1/TAN(48*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A4-8)*0.0947)*2</f>
-        <v>0.33218817983881094</v>
+        <f>(1/TAN(46*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A4-8)*0.0947)*2</f>
+        <v>0.35627382887211989</v>
       </c>
       <c r="C4" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A4-8)*0.0947)*2</f>
@@ -3463,33 +3483,33 @@
         <v>6</v>
       </c>
       <c r="G4" s="7">
-        <f>(1/TAN(40*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F4-8)*0.0947)*2</f>
-        <v>0.43967645330709021</v>
+        <f>(1/TAN(38*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F4-8)*0.0947)*2</f>
+        <v>0.4722118739812014</v>
       </c>
       <c r="H4" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F4-8)*0.0947)*2</f>
         <v>3.2277398216120572E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.399999999999999">
+    <row r="5" spans="1:9" ht="18">
       <c r="A5" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5"/>
       <c r="F5" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" ht="17.399999999999999">
+    <row r="6" spans="1:9" ht="18">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>0</v>
@@ -3500,48 +3520,47 @@
       <c r="E6"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.399999999999999">
+    <row r="7" spans="1:9" ht="18">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="7">
-        <f>(1/TAN(52*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A7-8)*0.0947)*2</f>
-        <v>0.22089272875192084</v>
+        <f>(1/TAN(50*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A7-8)*0.0947)*2</f>
+        <v>0.23723847071681164</v>
       </c>
       <c r="C7" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A7-8)*0.0947)*2</f>
         <v>2.4735652321556993E-2</v>
       </c>
-      <c r="D7" s="7">
-        <f>(1/TAN(72*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A7-8)*0.0947)*2</f>
-        <v>9.186448065996107E-2</v>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="7">
-        <f>(1/TAN(43*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F7-8)*0.0947)*2</f>
-        <v>0.30319059067381021</v>
+        <f>(1/TAN(44*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F7-8)*0.0947)*2</f>
+        <v>0.29277527828238509</v>
       </c>
       <c r="H7" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F7-8)*0.0947)*2</f>
         <v>2.4735652321556993E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.399999999999999">
+    <row r="8" spans="1:9" ht="18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="7">
-        <f>(1/TAN(52*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A8-8)*0.0947)*2</f>
-        <v>0.28824154205780267</v>
+        <f>(1/TAN(50*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A8-8)*0.0947)*2</f>
+        <v>0.30957099865268439</v>
       </c>
       <c r="C8" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A8-8)*0.0947)*2</f>
@@ -3556,15 +3575,15 @@
         <v>6</v>
       </c>
       <c r="G8" s="7">
-        <f>(1/TAN(43*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F8-8)*0.0947)*2</f>
-        <v>0.39563150804924435</v>
+        <f>(1/TAN(44*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F8-8)*0.0947)*2</f>
+        <v>0.38204063196346</v>
       </c>
       <c r="H8" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F8-8)*0.0947)*2</f>
         <v>3.2277398216120572E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999">
+    <row r="9" spans="1:9" ht="18">
       <c r="A9" s="11" t="s">
         <v>26</v>
       </c>
@@ -3573,35 +3592,35 @@
       <c r="D9" s="12"/>
       <c r="E9"/>
       <c r="F9" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999">
+    <row r="10" spans="1:9" ht="18">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.399999999999999">
+    <row r="11" spans="1:9" ht="18">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="7">
-        <f>(1/TAN(58*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A11-8)*0.0947)*2</f>
-        <v>0.17666918675293058</v>
+        <f>(1/TAN(60*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A11-8)*0.0947)*2</f>
+        <v>0.16323412600994011</v>
       </c>
       <c r="C11" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A11-8)*0.0947)*2</f>
@@ -3612,21 +3631,21 @@
         <v>4</v>
       </c>
       <c r="G11" s="7">
-        <f>(1/TAN(52*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F11-8)*0.0947)*2</f>
-        <v>0.22089272875192084</v>
+        <f>(1/TAN(50*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F11-8)*0.0947)*2</f>
+        <v>0.23723847071681164</v>
       </c>
       <c r="H11" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F11-8)*0.0947)*2</f>
         <v>2.4735652321556993E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.399999999999999">
+    <row r="12" spans="1:9" ht="18">
       <c r="A12" s="1">
         <v>6</v>
       </c>
       <c r="B12" s="7">
-        <f>(1/TAN(58*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A12-8)*0.0947)*2</f>
-        <v>0.23053451832248154</v>
+        <f>(1/TAN(60*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A12-8)*0.0947)*2</f>
+        <v>0.21300319147401392</v>
       </c>
       <c r="C12" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(A12-8)*0.0947)*2</f>
@@ -3637,8 +3656,8 @@
         <v>6</v>
       </c>
       <c r="G12" s="7">
-        <f>(1/TAN(52*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F12-8)*0.0947)*2</f>
-        <v>0.28824154205780267</v>
+        <f>(1/TAN(50*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F12-8)*0.0947)*2</f>
+        <v>0.30957099865268439</v>
       </c>
       <c r="H12" s="7">
         <f>(1/TAN(85*PI()/180))/(1/TAN(35*PI()/180))*0.325*(1+(F12-8)*0.0947)*2</f>
@@ -3648,7 +3667,7 @@
     <row r="13" spans="1:9">
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:9" ht="17.399999999999999">
+    <row r="14" spans="1:9" ht="18">
       <c r="A14" s="11" t="s">
         <v>6</v>
       </c>
@@ -3663,7 +3682,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:9" ht="17.399999999999999">
+    <row r="15" spans="1:9" ht="18">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>1</v>
@@ -3678,87 +3697,87 @@
       <c r="H15" s="2"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" ht="17.399999999999999">
+    <row r="16" spans="1:9" ht="18">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <f>B3</f>
-        <v>0.25457105516391482</v>
+        <v>0.27302899394937191</v>
       </c>
       <c r="C16" s="4"/>
       <c r="E16"/>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G16" s="4">
         <f>G3</f>
-        <v>0.33694425461925048</v>
+        <v>0.36187764139788098</v>
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="17.399999999999999">
+    <row r="17" spans="1:9" ht="18">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4">
         <f>B4</f>
-        <v>0.33218817983881094</v>
+        <v>0.35627382887211989</v>
       </c>
       <c r="C17" s="4"/>
       <c r="E17"/>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G17" s="4">
         <f>G4</f>
-        <v>0.43967645330709021</v>
+        <v>0.4722118739812014</v>
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17.399999999999999">
+    <row r="18" spans="1:9" ht="18">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="4">
         <f>B7</f>
-        <v>0.22089272875192084</v>
+        <v>0.23723847071681164</v>
       </c>
       <c r="C18" s="4"/>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G18" s="4">
         <f>G7</f>
-        <v>0.30319059067381021</v>
+        <v>0.29277527828238509</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="17.399999999999999">
+    <row r="19" spans="1:9" ht="18">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="4">
         <f>B8</f>
-        <v>0.28824154205780267</v>
+        <v>0.30957099865268439</v>
       </c>
       <c r="C19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G19" s="4">
         <f>G8</f>
-        <v>0.39563150804924435</v>
+        <v>0.38204063196346</v>
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17.399999999999999">
+    <row r="20" spans="1:9" ht="18">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="4">
         <f>B11</f>
-        <v>0.17666918675293058</v>
+        <v>0.16323412600994011</v>
       </c>
       <c r="C20" s="4"/>
       <c r="F20" s="1" t="s">
@@ -3766,17 +3785,17 @@
       </c>
       <c r="G20" s="4">
         <f>G11</f>
-        <v>0.22089272875192084</v>
+        <v>0.23723847071681164</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:9" ht="17.399999999999999">
+    <row r="21" spans="1:9" ht="18">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="4">
         <f>B12</f>
-        <v>0.23053451832248154</v>
+        <v>0.21300319147401392</v>
       </c>
       <c r="C21" s="4"/>
       <c r="F21" s="1" t="s">
@@ -3784,13 +3803,13 @@
       </c>
       <c r="G21" s="4">
         <f>G12</f>
-        <v>0.28824154205780267</v>
+        <v>0.30957099865268439</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:9" ht="17.399999999999999">
+    <row r="22" spans="1:9" ht="18">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4">
         <f>D3</f>
@@ -3806,9 +3825,9 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:9" ht="17.399999999999999">
+    <row r="23" spans="1:9" ht="18">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B23" s="4">
         <f>D4</f>
@@ -3824,7 +3843,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:9" ht="17.399999999999999">
+    <row r="24" spans="1:9" ht="18">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -3835,7 +3854,7 @@
       <c r="C24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:9" ht="17.399999999999999">
+    <row r="25" spans="1:9" ht="18">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3879,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" ht="17.399999999999999">
+    <row r="28" spans="1:9" ht="18">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>1</v>
@@ -3874,213 +3893,267 @@
       <c r="H28" s="2"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="17.399999999999999">
+    <row r="29" spans="1:9" ht="18">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B29" s="4">
-        <v>0.33218817983881094</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>11</v>
+        <v>0.35627382887211989</v>
+      </c>
+      <c r="C29" s="8">
+        <f>B29/B29</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G29" s="4">
         <v>0.11618497512127297</v>
       </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" ht="17.399999999999999">
+      <c r="H29" s="8">
+        <f>G29/G29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="4">
-        <v>0.28824154205780267</v>
-      </c>
-      <c r="C30" s="9"/>
+        <v>0.30957099865268439</v>
+      </c>
+      <c r="C30" s="9">
+        <f>B30/B29</f>
+        <v>0.86891310437455982</v>
+      </c>
+      <c r="D30" s="14"/>
       <c r="F30" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G30" s="4">
         <v>8.9037881255039183E-2</v>
       </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" ht="17.399999999999999">
+      <c r="H30" s="9">
+        <f>G30/G29</f>
+        <v>0.76634591660498386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B31" s="4">
-        <v>0.25457105516391482</v>
-      </c>
-      <c r="C31" s="9"/>
+        <v>0.27302899394937191</v>
+      </c>
+      <c r="C31" s="9">
+        <f>B31/B29</f>
+        <v>0.76634591660498397</v>
+      </c>
+      <c r="D31" s="14"/>
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G31" s="4">
         <v>3.1284247501778398E-2</v>
       </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" ht="17.399999999999999">
+      <c r="H31" s="9">
+        <f>G31/G29</f>
+        <v>0.26926241942320117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4">
-        <v>0.23053451832248154</v>
-      </c>
-      <c r="C32" s="9"/>
+        <v>0.23723847071681164</v>
+      </c>
+      <c r="C32" s="9">
+        <f>B32/B29</f>
+        <v>0.6658880094220041</v>
+      </c>
+      <c r="D32" s="14"/>
       <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G32" s="4">
         <v>2.3974555327047547E-2</v>
       </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.399999999999999">
+      <c r="H32" s="9">
+        <f>G32/G29</f>
+        <v>0.20634815562014874</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4">
-        <v>0.22089272875192084</v>
-      </c>
-      <c r="C33" s="9"/>
+        <v>0.21300319147401392</v>
+      </c>
+      <c r="C33" s="9">
+        <f>B33/B29</f>
+        <v>0.59786370542100298</v>
+      </c>
+      <c r="D33" s="14"/>
       <c r="F33" s="1"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="17.399999999999999">
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" ht="18">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="4">
-        <v>0.17666918675293058</v>
-      </c>
-      <c r="C34" s="10"/>
+        <v>0.16323412600994011</v>
+      </c>
+      <c r="C34" s="9">
+        <f>B34/B29</f>
+        <v>0.45817040933571068</v>
+      </c>
+      <c r="D34" s="15"/>
       <c r="F34" s="1"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.399999999999999">
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" ht="18">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>0.43967645330709021</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>12</v>
+        <v>0.4722118739812014</v>
+      </c>
+      <c r="C35" s="8">
+        <f>B35/B35</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.399999999999999">
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" ht="18">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>0.39563150804924435</v>
-      </c>
-      <c r="C36" s="9"/>
+        <v>0.38204063196346</v>
+      </c>
+      <c r="C36" s="9">
+        <f>B36/B35</f>
+        <v>0.80904494997656262</v>
+      </c>
+      <c r="D36" s="14"/>
       <c r="F36" s="1"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.399999999999999">
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" ht="18">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4">
-        <v>0.33694425461925048</v>
-      </c>
-      <c r="C37" s="9"/>
+        <v>0.36187764139788098</v>
+      </c>
+      <c r="C37" s="9">
+        <f>B37/B35</f>
+        <v>0.76634591660498397</v>
+      </c>
+      <c r="D37" s="14"/>
       <c r="F37" s="1"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.399999999999999">
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" ht="18">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B38" s="4">
-        <v>0.30319059067381021</v>
-      </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" ht="17.399999999999999">
+        <v>0.30957099865268439</v>
+      </c>
+      <c r="C38" s="9">
+        <f>B38/B35</f>
+        <v>0.65557648104589661</v>
+      </c>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" ht="18">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4">
-        <v>0.28824154205780267</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="F39">
-        <v>30355</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="17.399999999999999">
+        <v>0.29277527828238509</v>
+      </c>
+      <c r="C39" s="9">
+        <f>B39/B35</f>
+        <v>0.62000829376442235</v>
+      </c>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:8" ht="18">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="4">
-        <v>0.22089272875192084</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="F40">
-        <v>30357</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="17.399999999999999">
+        <v>0.23723847071681164</v>
+      </c>
+      <c r="C40" s="9">
+        <f>B40/B35</f>
+        <v>0.50239835927178744</v>
+      </c>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" ht="18">
       <c r="A41" s="1"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="17.399999999999999">
+    <row r="42" spans="1:8" ht="18">
       <c r="A42" s="1"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:8" ht="17.399999999999999">
+    <row r="43" spans="1:8" ht="18">
       <c r="A43" s="1"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:8" ht="17.399999999999999">
+    <row r="44" spans="1:8" ht="18">
       <c r="A44" s="1"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:8" ht="17.399999999999999">
+    <row r="45" spans="1:8" ht="18">
       <c r="A45" s="1"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:8" ht="17.399999999999999">
+    <row r="46" spans="1:8" ht="18">
       <c r="A46" s="1"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" spans="1:8" ht="17.399999999999999">
+    <row r="47" spans="1:8" ht="18">
       <c r="A47" s="1"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="1:8" ht="17.399999999999999">
+    <row r="48" spans="1:8" ht="18">
       <c r="A48" s="1"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
     </row>
-    <row r="49" spans="1:3" ht="17.399999999999999">
+    <row r="49" spans="1:3" ht="18">
       <c r="A49" s="1"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:3" ht="17.399999999999999">
+    <row r="50" spans="1:3" ht="18">
       <c r="A50" s="1"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4090,8 +4163,8 @@
     <sortCondition descending="1" ref="B35:B40"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="D35:D40"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>

--- a/Docs/Differential Lock Map.xlsx
+++ b/Docs/Differential Lock Map.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -354,12 +354,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -367,6 +361,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3387,7 +3387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53A2CF9-C721-44C5-8A93-F91D726F5388}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -3399,19 +3399,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1"/>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1">
       <c r="A2" s="1"/>
@@ -3492,19 +3492,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5"/>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="18">
       <c r="A6" s="1"/>
@@ -3584,19 +3584,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9"/>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:9" ht="18">
       <c r="A10" s="1"/>
@@ -3668,19 +3668,19 @@
       <c r="E13"/>
     </row>
     <row r="14" spans="1:9" ht="18">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
       <c r="E14"/>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="18">
       <c r="A15" s="1"/>
@@ -3866,18 +3866,18 @@
       <c r="H25" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="18" customHeight="1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="F27" s="11" t="s">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="F27" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="18">
       <c r="A28" s="1"/>
@@ -3904,7 +3904,7 @@
         <f>B29/B29</f>
         <v>1</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -3929,7 +3929,7 @@
         <f>B30/B29</f>
         <v>0.86891310437455982</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="12"/>
       <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
@@ -3952,7 +3952,7 @@
         <f>B31/B29</f>
         <v>0.76634591660498397</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="12"/>
       <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
@@ -3975,7 +3975,7 @@
         <f>B32/B29</f>
         <v>0.6658880094220041</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="12"/>
       <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
@@ -3998,7 +3998,7 @@
         <f>B33/B29</f>
         <v>0.59786370542100298</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="12"/>
       <c r="F33" s="1"/>
       <c r="G33" s="4"/>
       <c r="H33" s="9"/>
@@ -4014,7 +4014,7 @@
         <f>B34/B29</f>
         <v>0.45817040933571068</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="13"/>
       <c r="F34" s="1"/>
       <c r="G34" s="4"/>
       <c r="H34" s="9"/>
@@ -4030,7 +4030,7 @@
         <f>B35/B35</f>
         <v>1</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="1"/>
@@ -4048,7 +4048,7 @@
         <f>B36/B35</f>
         <v>0.80904494997656262</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="12"/>
       <c r="F36" s="1"/>
       <c r="G36" s="4"/>
       <c r="H36" s="10"/>
@@ -4064,7 +4064,7 @@
         <f>B37/B35</f>
         <v>0.76634591660498397</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="12"/>
       <c r="F37" s="1"/>
       <c r="G37" s="4"/>
       <c r="H37" s="10"/>
@@ -4080,7 +4080,7 @@
         <f>B38/B35</f>
         <v>0.65557648104589661</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:8" ht="18">
       <c r="A39" s="1" t="s">
@@ -4093,7 +4093,7 @@
         <f>B39/B35</f>
         <v>0.62000829376442235</v>
       </c>
-      <c r="D39" s="14"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:8" ht="18">
       <c r="A40" s="1" t="s">
@@ -4106,7 +4106,7 @@
         <f>B40/B35</f>
         <v>0.50239835927178744</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:8" ht="18">
       <c r="A41" s="1"/>

--- a/Docs/Differential Lock Map.xlsx
+++ b/Docs/Differential Lock Map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d030e980fc414b5/Documents/BeamNG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2248" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DF9D278-AE94-4857-BBE5-0761BFB4A2F6}"/>
+  <xr:revisionPtr revIDLastSave="2299" documentId="8_{52CC542D-2C42-4976-9315-1380CBB8CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C53368B0-6462-4AD1-8FAE-8BE8D7E41630}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D4416D72-3604-43CB-A686-6E38D6CE2DE9}"/>
   </bookViews>
@@ -3064,10 +3064,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3388,7 +3384,7 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
